--- a/biology/Botanique/Cœur_de_Marie/Cœur_de_Marie.xlsx
+++ b/biology/Botanique/Cœur_de_Marie/Cœur_de_Marie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C5%93ur_de_Marie</t>
+          <t>Cœur_de_Marie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lamprocapnos spectabilis, Dicentra spectabilis
 Le Cœur de Marie ou encore Cœur-de-Jeannette ou Cœur-Saignant (Lamprocapnos spectabilis, anciennement Dicentra spectabilis) est une espèce de plantes vivaces de la famille des Papavéracées, cultivée pour ses fleurs roses et blanches très décoratives.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C5%93ur_de_Marie</t>
+          <t>Cœur_de_Marie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une plante d'ornement ne dépassant pas 70 centimètres de hauteur, vivace à bulbes, au feuillage caduc, cultivée en massifs, en bordures ou en jardinières surtout pour ses très belles fleurs printanières en forme de cœur, rouges, roses ou blanches.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C5%93ur_de_Marie</t>
+          <t>Cœur_de_Marie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cœur saignant asiatique atteint 120 cm (47 pouces) de haut sur 45 cm (18 pouces) de large. C'est une plante herbacée vivace rhizomateuse portant des feuilles composées trilobées sur des tiges charnues vertes à roses. Les tiges arquées portent au printemps et au début de l'été des racèmes contenant jusqu'à 20 fleurs pendantes. Les pétales extérieurs sont rose fuchsia brillant, tandis que les pétales intérieurs sont blancs. Les fleurs ressemblent de manière frappante à la forme de cœur conventionnelle, avec une goutte en dessous - d'où le nom commun. La plante se comporte parfois comme une éphémère printanière, passant en dormance en été[réf. nécessaire]. 
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C5%93ur_de_Marie</t>
+          <t>Cœur_de_Marie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les différentes espèces contiennent des alcaloïdes de type isoquinoléine toxiques pour le bétail. Le Cœur-saignant peut provoquer par contact une irritation de la peau (dermatite)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les différentes espèces contiennent des alcaloïdes de type isoquinoléine toxiques pour le bétail. Le Cœur-saignant peut provoquer par contact une irritation de la peau (dermatite).
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C%C5%93ur_de_Marie</t>
+          <t>Cœur_de_Marie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La multiplication de la plante se fait par semis des graines avant qu'elles ne se dessèchent ou par division de préférence en fin d'automne ou tôt au printemps.
 Les pucerons, limaces et escargots se nourrissent parfois des feuilles de cette espèce.
